--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Gazir Khal/Drawings/Gazir_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Gazir Khal/Drawings/Gazir_Khal_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D4F0C-5B95-47F6-9B1E-C676CDD4A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769B188-D8EE-4ED1-ACAF-FB38375DD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -778,6 +778,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,9 +789,6 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -15274,7 +15274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A379" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="X382" sqref="X382"/>
     </sheetView>
   </sheetViews>
@@ -15677,28 +15677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -15707,10 +15707,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <v>0</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
@@ -16273,10 +16273,10 @@
       <c r="E17" s="42"/>
       <c r="F17" s="41"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16301,10 +16301,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="44">
+      <c r="D18" s="45">
         <v>0.1</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
@@ -16823,10 +16823,10 @@
       <c r="E32" s="42"/>
       <c r="F32" s="41"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="46"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16851,10 +16851,10 @@
         <v>69</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="44">
+      <c r="D33" s="45">
         <v>0.2</v>
       </c>
-      <c r="E33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -17407,10 +17407,10 @@
         <v>69</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="44">
+      <c r="D48" s="45">
         <v>0.3</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="45"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
@@ -17957,10 +17957,10 @@
         <v>69</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="44">
+      <c r="D63" s="45">
         <v>0.4</v>
       </c>
-      <c r="E63" s="44"/>
+      <c r="E63" s="45"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
@@ -17970,22 +17970,22 @@
       <c r="P63" s="24"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
       <c r="H64" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="30"/>
@@ -18544,10 +18544,10 @@
       <c r="E79" s="42"/>
       <c r="F79" s="41"/>
       <c r="G79" s="39"/>
-      <c r="H79" s="46" t="s">
+      <c r="H79" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I79" s="46"/>
+      <c r="I79" s="47"/>
       <c r="J79" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -18572,10 +18572,10 @@
         <v>69</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="44">
+      <c r="D80" s="45">
         <v>0.5</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="45"/>
       <c r="J80" s="42"/>
       <c r="K80" s="42"/>
       <c r="L80" s="42"/>
@@ -18585,22 +18585,22 @@
       <c r="P80" s="24"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
       <c r="H81" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I81" s="45" t="s">
+      <c r="I81" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
       <c r="P81" s="30"/>
@@ -19214,10 +19214,10 @@
         <v>69</v>
       </c>
       <c r="C97" s="23"/>
-      <c r="D97" s="44">
+      <c r="D97" s="45">
         <v>0.6</v>
       </c>
-      <c r="E97" s="44"/>
+      <c r="E97" s="45"/>
       <c r="J97" s="42"/>
       <c r="K97" s="42"/>
       <c r="L97" s="42"/>
@@ -19845,10 +19845,10 @@
         <v>69</v>
       </c>
       <c r="C114" s="23"/>
-      <c r="D114" s="44">
+      <c r="D114" s="45">
         <v>0.7</v>
       </c>
-      <c r="E114" s="44"/>
+      <c r="E114" s="45"/>
       <c r="J114" s="42"/>
       <c r="K114" s="42"/>
       <c r="L114" s="42"/>
@@ -20404,10 +20404,10 @@
         <v>69</v>
       </c>
       <c r="C128" s="23"/>
-      <c r="D128" s="44">
+      <c r="D128" s="45">
         <v>0.8</v>
       </c>
-      <c r="E128" s="44"/>
+      <c r="E128" s="45"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
@@ -20417,17 +20417,17 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="45"/>
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="46"/>
+      <c r="L129" s="46"/>
+      <c r="M129" s="46"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
       <c r="P129" s="30"/>
@@ -20981,10 +20981,10 @@
       <c r="E143" s="42"/>
       <c r="F143" s="41"/>
       <c r="G143" s="39"/>
-      <c r="H143" s="46" t="s">
+      <c r="H143" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I143" s="46"/>
+      <c r="I143" s="47"/>
       <c r="J143" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -21009,10 +21009,10 @@
         <v>69</v>
       </c>
       <c r="C144" s="23"/>
-      <c r="D144" s="44">
+      <c r="D144" s="45">
         <v>0.9</v>
       </c>
-      <c r="E144" s="44"/>
+      <c r="E144" s="45"/>
       <c r="J144" s="42"/>
       <c r="K144" s="42"/>
       <c r="L144" s="42"/>
@@ -21022,17 +21022,17 @@
       <c r="P144" s="24"/>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="I145" s="45"/>
-      <c r="J145" s="45"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="45"/>
-      <c r="M145" s="45"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="46"/>
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="46"/>
       <c r="N145" s="25"/>
       <c r="O145" s="25"/>
       <c r="P145" s="30"/>
@@ -21576,10 +21576,10 @@
         <v>69</v>
       </c>
       <c r="C160" s="23"/>
-      <c r="D160" s="44">
+      <c r="D160" s="45">
         <v>1</v>
       </c>
-      <c r="E160" s="44"/>
+      <c r="E160" s="45"/>
       <c r="J160" s="42"/>
       <c r="K160" s="42"/>
       <c r="L160" s="42"/>
@@ -21589,17 +21589,17 @@
       <c r="P160" s="24"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="45"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
-      <c r="E161" s="45"/>
-      <c r="F161" s="45"/>
-      <c r="G161" s="45"/>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="45"/>
-      <c r="M161" s="45"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="46"/>
+      <c r="K161" s="46"/>
+      <c r="L161" s="46"/>
+      <c r="M161" s="46"/>
       <c r="N161" s="25"/>
       <c r="O161" s="25"/>
       <c r="P161" s="30"/>
@@ -22157,10 +22157,10 @@
       <c r="E177" s="42"/>
       <c r="F177" s="41"/>
       <c r="G177" s="39"/>
-      <c r="H177" s="46" t="s">
+      <c r="H177" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I177" s="46"/>
+      <c r="I177" s="47"/>
       <c r="J177" s="41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -22185,10 +22185,10 @@
         <v>69</v>
       </c>
       <c r="C178" s="23"/>
-      <c r="D178" s="44">
+      <c r="D178" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E178" s="44"/>
+      <c r="E178" s="45"/>
       <c r="J178" s="42"/>
       <c r="K178" s="42"/>
       <c r="L178" s="42"/>
@@ -22198,17 +22198,17 @@
       <c r="P178" s="24"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="45"/>
-      <c r="C179" s="45"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="45"/>
-      <c r="I179" s="45"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="45"/>
-      <c r="L179" s="45"/>
-      <c r="M179" s="45"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="I179" s="46"/>
+      <c r="J179" s="46"/>
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
       <c r="N179" s="25"/>
       <c r="O179" s="25"/>
       <c r="P179" s="30"/>
@@ -22740,10 +22740,10 @@
         <v>69</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="44">
+      <c r="D194" s="45">
         <v>1.2</v>
       </c>
-      <c r="E194" s="44"/>
+      <c r="E194" s="45"/>
       <c r="J194" s="42"/>
       <c r="K194" s="42"/>
       <c r="L194" s="42"/>
@@ -23380,10 +23380,10 @@
       <c r="E211" s="42"/>
       <c r="F211" s="41"/>
       <c r="G211" s="39"/>
-      <c r="H211" s="46" t="s">
+      <c r="H211" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I211" s="46"/>
+      <c r="I211" s="47"/>
       <c r="J211" s="41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -23408,10 +23408,10 @@
         <v>69</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="44">
+      <c r="D212" s="45">
         <v>1.3</v>
       </c>
-      <c r="E212" s="44"/>
+      <c r="E212" s="45"/>
       <c r="J212" s="42"/>
       <c r="K212" s="42"/>
       <c r="L212" s="42"/>
@@ -23989,10 +23989,10 @@
         <v>69</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="44">
+      <c r="D228" s="45">
         <v>1.4</v>
       </c>
-      <c r="E228" s="44"/>
+      <c r="E228" s="45"/>
       <c r="J228" s="42"/>
       <c r="K228" s="42"/>
       <c r="L228" s="42"/>
@@ -24509,10 +24509,10 @@
         <v>69</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="44">
+      <c r="D242" s="45">
         <v>1.5</v>
       </c>
-      <c r="E242" s="44"/>
+      <c r="E242" s="45"/>
       <c r="J242" s="42"/>
       <c r="K242" s="42"/>
       <c r="L242" s="42"/>
@@ -24522,17 +24522,17 @@
       <c r="P242" s="24"/>
     </row>
     <row r="243" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B243" s="45"/>
-      <c r="C243" s="45"/>
-      <c r="D243" s="45"/>
-      <c r="E243" s="45"/>
-      <c r="F243" s="45"/>
-      <c r="G243" s="45"/>
-      <c r="I243" s="45"/>
-      <c r="J243" s="45"/>
-      <c r="K243" s="45"/>
-      <c r="L243" s="45"/>
-      <c r="M243" s="45"/>
+      <c r="B243" s="46"/>
+      <c r="C243" s="46"/>
+      <c r="D243" s="46"/>
+      <c r="E243" s="46"/>
+      <c r="F243" s="46"/>
+      <c r="G243" s="46"/>
+      <c r="I243" s="46"/>
+      <c r="J243" s="46"/>
+      <c r="K243" s="46"/>
+      <c r="L243" s="46"/>
+      <c r="M243" s="46"/>
       <c r="N243" s="25"/>
       <c r="O243" s="25"/>
       <c r="P243" s="30"/>
@@ -25088,10 +25088,10 @@
         <v>69</v>
       </c>
       <c r="C259" s="23"/>
-      <c r="D259" s="44">
+      <c r="D259" s="45">
         <v>1.6</v>
       </c>
-      <c r="E259" s="44"/>
+      <c r="E259" s="45"/>
       <c r="J259" s="42"/>
       <c r="K259" s="42"/>
       <c r="L259" s="42"/>
@@ -25699,10 +25699,10 @@
         <v>69</v>
       </c>
       <c r="C276" s="23"/>
-      <c r="D276" s="44">
+      <c r="D276" s="45">
         <v>1.7</v>
       </c>
-      <c r="E276" s="44"/>
+      <c r="E276" s="45"/>
       <c r="J276" s="42"/>
       <c r="K276" s="42"/>
       <c r="L276" s="42"/>
@@ -25712,17 +25712,17 @@
       <c r="P276" s="24"/>
     </row>
     <row r="277" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B277" s="45"/>
-      <c r="C277" s="45"/>
-      <c r="D277" s="45"/>
-      <c r="E277" s="45"/>
-      <c r="F277" s="45"/>
-      <c r="G277" s="45"/>
-      <c r="I277" s="45"/>
-      <c r="J277" s="45"/>
-      <c r="K277" s="45"/>
-      <c r="L277" s="45"/>
-      <c r="M277" s="45"/>
+      <c r="B277" s="46"/>
+      <c r="C277" s="46"/>
+      <c r="D277" s="46"/>
+      <c r="E277" s="46"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="46"/>
+      <c r="I277" s="46"/>
+      <c r="J277" s="46"/>
+      <c r="K277" s="46"/>
+      <c r="L277" s="46"/>
+      <c r="M277" s="46"/>
       <c r="N277" s="25"/>
       <c r="O277" s="25"/>
       <c r="P277" s="30"/>
@@ -26247,10 +26247,10 @@
         <v>69</v>
       </c>
       <c r="C292" s="23"/>
-      <c r="D292" s="44">
+      <c r="D292" s="45">
         <v>1.8</v>
       </c>
-      <c r="E292" s="44"/>
+      <c r="E292" s="45"/>
       <c r="J292" s="42"/>
       <c r="K292" s="42"/>
       <c r="L292" s="42"/>
@@ -26260,17 +26260,17 @@
       <c r="P292" s="24"/>
     </row>
     <row r="293" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B293" s="45"/>
-      <c r="C293" s="45"/>
-      <c r="D293" s="45"/>
-      <c r="E293" s="45"/>
-      <c r="F293" s="45"/>
-      <c r="G293" s="45"/>
-      <c r="I293" s="45"/>
-      <c r="J293" s="45"/>
-      <c r="K293" s="45"/>
-      <c r="L293" s="45"/>
-      <c r="M293" s="45"/>
+      <c r="B293" s="46"/>
+      <c r="C293" s="46"/>
+      <c r="D293" s="46"/>
+      <c r="E293" s="46"/>
+      <c r="F293" s="46"/>
+      <c r="G293" s="46"/>
+      <c r="I293" s="46"/>
+      <c r="J293" s="46"/>
+      <c r="K293" s="46"/>
+      <c r="L293" s="46"/>
+      <c r="M293" s="46"/>
       <c r="N293" s="25"/>
       <c r="O293" s="25"/>
       <c r="P293" s="30"/>
@@ -26751,10 +26751,10 @@
         <v>69</v>
       </c>
       <c r="C307" s="23"/>
-      <c r="D307" s="44">
+      <c r="D307" s="45">
         <v>1.9</v>
       </c>
-      <c r="E307" s="44"/>
+      <c r="E307" s="45"/>
       <c r="J307" s="42"/>
       <c r="K307" s="42"/>
       <c r="L307" s="42"/>
@@ -27299,10 +27299,10 @@
         <v>69</v>
       </c>
       <c r="C323" s="23"/>
-      <c r="D323" s="44">
+      <c r="D323" s="45">
         <v>2</v>
       </c>
-      <c r="E323" s="44"/>
+      <c r="E323" s="45"/>
       <c r="J323" s="42"/>
       <c r="K323" s="42"/>
       <c r="L323" s="42"/>
@@ -27864,10 +27864,10 @@
         <v>69</v>
       </c>
       <c r="C340" s="23"/>
-      <c r="D340" s="44">
+      <c r="D340" s="45">
         <v>2.1</v>
       </c>
-      <c r="E340" s="44"/>
+      <c r="E340" s="45"/>
       <c r="J340" s="42"/>
       <c r="K340" s="42"/>
       <c r="L340" s="42"/>
@@ -28474,10 +28474,10 @@
         <v>69</v>
       </c>
       <c r="C358" s="23"/>
-      <c r="D358" s="44">
+      <c r="D358" s="45">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E358" s="44"/>
+      <c r="E358" s="45"/>
       <c r="J358" s="42"/>
       <c r="K358" s="42"/>
       <c r="L358" s="42"/>
@@ -28938,10 +28938,10 @@
         <v>69</v>
       </c>
       <c r="C372" s="23"/>
-      <c r="D372" s="44">
+      <c r="D372" s="45">
         <v>2.3250000000000002</v>
       </c>
-      <c r="E372" s="44"/>
+      <c r="E372" s="45"/>
       <c r="J372" s="42"/>
       <c r="K372" s="42"/>
       <c r="L372" s="42"/>
@@ -28951,17 +28951,17 @@
       <c r="P372" s="24"/>
     </row>
     <row r="373" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B373" s="45"/>
-      <c r="C373" s="45"/>
-      <c r="D373" s="45"/>
-      <c r="E373" s="45"/>
-      <c r="F373" s="45"/>
-      <c r="G373" s="45"/>
-      <c r="I373" s="45"/>
-      <c r="J373" s="45"/>
-      <c r="K373" s="45"/>
-      <c r="L373" s="45"/>
-      <c r="M373" s="45"/>
+      <c r="B373" s="46"/>
+      <c r="C373" s="46"/>
+      <c r="D373" s="46"/>
+      <c r="E373" s="46"/>
+      <c r="F373" s="46"/>
+      <c r="G373" s="46"/>
+      <c r="I373" s="46"/>
+      <c r="J373" s="46"/>
+      <c r="K373" s="46"/>
+      <c r="L373" s="46"/>
+      <c r="M373" s="46"/>
       <c r="N373" s="25"/>
       <c r="O373" s="25"/>
       <c r="P373" s="30"/>
@@ -30062,6 +30062,42 @@
     <row r="861" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="B373:G373"/>
+    <mergeCell ref="I373:M373"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="I293:M293"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="I243:M243"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="I277:M277"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="I179:M179"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="I161:M161"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="I129:M129"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="I145:M145"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="B64:G64"/>
@@ -30077,42 +30113,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="B179:G179"/>
-    <mergeCell ref="I179:M179"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="I161:M161"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="I129:M129"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="I145:M145"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="I243:M243"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="I277:M277"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="I293:M293"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="B373:G373"/>
-    <mergeCell ref="I373:M373"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -30124,8 +30124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Gazir Khal/Drawings/Gazir_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/6 Gazir Khal/Drawings/Gazir_Khal_Dataprep_Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769B188-D8EE-4ED1-ACAF-FB38375DD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127ECB7-7901-4D60-8F65-65ECE1795BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -778,9 +778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,6 +786,9 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -15677,28 +15677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -15707,10 +15707,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>0</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="44"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
@@ -16273,10 +16273,10 @@
       <c r="E17" s="42"/>
       <c r="F17" s="41"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16301,10 +16301,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="45">
+      <c r="D18" s="44">
         <v>0.1</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="44"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
@@ -16823,10 +16823,10 @@
       <c r="E32" s="42"/>
       <c r="F32" s="41"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="47"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -16851,10 +16851,10 @@
         <v>69</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="45">
+      <c r="D33" s="44">
         <v>0.2</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="44"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -17407,10 +17407,10 @@
         <v>69</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="45">
+      <c r="D48" s="44">
         <v>0.3</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="44"/>
       <c r="J48" s="42"/>
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
@@ -17957,10 +17957,10 @@
         <v>69</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="45">
+      <c r="D63" s="44">
         <v>0.4</v>
       </c>
-      <c r="E63" s="45"/>
+      <c r="E63" s="44"/>
       <c r="J63" s="42"/>
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
@@ -17970,22 +17970,22 @@
       <c r="P63" s="24"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="46" t="s">
+      <c r="I64" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="30"/>
@@ -18544,10 +18544,10 @@
       <c r="E79" s="42"/>
       <c r="F79" s="41"/>
       <c r="G79" s="39"/>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I79" s="47"/>
+      <c r="I79" s="46"/>
       <c r="J79" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -18572,10 +18572,10 @@
         <v>69</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="45">
+      <c r="D80" s="44">
         <v>0.5</v>
       </c>
-      <c r="E80" s="45"/>
+      <c r="E80" s="44"/>
       <c r="J80" s="42"/>
       <c r="K80" s="42"/>
       <c r="L80" s="42"/>
@@ -18585,22 +18585,22 @@
       <c r="P80" s="24"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I81" s="46" t="s">
+      <c r="I81" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
       <c r="P81" s="30"/>
@@ -19214,10 +19214,10 @@
         <v>69</v>
       </c>
       <c r="C97" s="23"/>
-      <c r="D97" s="45">
+      <c r="D97" s="44">
         <v>0.6</v>
       </c>
-      <c r="E97" s="45"/>
+      <c r="E97" s="44"/>
       <c r="J97" s="42"/>
       <c r="K97" s="42"/>
       <c r="L97" s="42"/>
@@ -19845,10 +19845,10 @@
         <v>69</v>
       </c>
       <c r="C114" s="23"/>
-      <c r="D114" s="45">
+      <c r="D114" s="44">
         <v>0.7</v>
       </c>
-      <c r="E114" s="45"/>
+      <c r="E114" s="44"/>
       <c r="J114" s="42"/>
       <c r="K114" s="42"/>
       <c r="L114" s="42"/>
@@ -20404,10 +20404,10 @@
         <v>69</v>
       </c>
       <c r="C128" s="23"/>
-      <c r="D128" s="45">
+      <c r="D128" s="44">
         <v>0.8</v>
       </c>
-      <c r="E128" s="45"/>
+      <c r="E128" s="44"/>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
       <c r="L128" s="42"/>
@@ -20417,17 +20417,17 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="46"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="I129" s="46"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="45"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
       <c r="P129" s="30"/>
@@ -20981,10 +20981,10 @@
       <c r="E143" s="42"/>
       <c r="F143" s="41"/>
       <c r="G143" s="39"/>
-      <c r="H143" s="47" t="s">
+      <c r="H143" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I143" s="47"/>
+      <c r="I143" s="46"/>
       <c r="J143" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -21009,10 +21009,10 @@
         <v>69</v>
       </c>
       <c r="C144" s="23"/>
-      <c r="D144" s="45">
+      <c r="D144" s="44">
         <v>0.9</v>
       </c>
-      <c r="E144" s="45"/>
+      <c r="E144" s="44"/>
       <c r="J144" s="42"/>
       <c r="K144" s="42"/>
       <c r="L144" s="42"/>
@@ -21022,17 +21022,17 @@
       <c r="P144" s="24"/>
     </row>
     <row r="145" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="I145" s="46"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="46"/>
-      <c r="L145" s="46"/>
-      <c r="M145" s="46"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="45"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="45"/>
       <c r="N145" s="25"/>
       <c r="O145" s="25"/>
       <c r="P145" s="30"/>
@@ -21576,10 +21576,10 @@
         <v>69</v>
       </c>
       <c r="C160" s="23"/>
-      <c r="D160" s="45">
+      <c r="D160" s="44">
         <v>1</v>
       </c>
-      <c r="E160" s="45"/>
+      <c r="E160" s="44"/>
       <c r="J160" s="42"/>
       <c r="K160" s="42"/>
       <c r="L160" s="42"/>
@@ -21589,17 +21589,17 @@
       <c r="P160" s="24"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
       <c r="N161" s="25"/>
       <c r="O161" s="25"/>
       <c r="P161" s="30"/>
@@ -22157,10 +22157,10 @@
       <c r="E177" s="42"/>
       <c r="F177" s="41"/>
       <c r="G177" s="39"/>
-      <c r="H177" s="47" t="s">
+      <c r="H177" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I177" s="47"/>
+      <c r="I177" s="46"/>
       <c r="J177" s="41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -22185,10 +22185,10 @@
         <v>69</v>
       </c>
       <c r="C178" s="23"/>
-      <c r="D178" s="45">
+      <c r="D178" s="44">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E178" s="45"/>
+      <c r="E178" s="44"/>
       <c r="J178" s="42"/>
       <c r="K178" s="42"/>
       <c r="L178" s="42"/>
@@ -22198,17 +22198,17 @@
       <c r="P178" s="24"/>
     </row>
     <row r="179" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="46"/>
-      <c r="M179" s="46"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="45"/>
+      <c r="I179" s="45"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="45"/>
+      <c r="L179" s="45"/>
+      <c r="M179" s="45"/>
       <c r="N179" s="25"/>
       <c r="O179" s="25"/>
       <c r="P179" s="30"/>
@@ -22740,10 +22740,10 @@
         <v>69</v>
       </c>
       <c r="C194" s="23"/>
-      <c r="D194" s="45">
+      <c r="D194" s="44">
         <v>1.2</v>
       </c>
-      <c r="E194" s="45"/>
+      <c r="E194" s="44"/>
       <c r="J194" s="42"/>
       <c r="K194" s="42"/>
       <c r="L194" s="42"/>
@@ -23380,10 +23380,10 @@
       <c r="E211" s="42"/>
       <c r="F211" s="41"/>
       <c r="G211" s="39"/>
-      <c r="H211" s="47" t="s">
+      <c r="H211" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I211" s="47"/>
+      <c r="I211" s="46"/>
       <c r="J211" s="41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -23408,10 +23408,10 @@
         <v>69</v>
       </c>
       <c r="C212" s="23"/>
-      <c r="D212" s="45">
+      <c r="D212" s="44">
         <v>1.3</v>
       </c>
-      <c r="E212" s="45"/>
+      <c r="E212" s="44"/>
       <c r="J212" s="42"/>
       <c r="K212" s="42"/>
       <c r="L212" s="42"/>
@@ -23989,10 +23989,10 @@
         <v>69</v>
       </c>
       <c r="C228" s="23"/>
-      <c r="D228" s="45">
+      <c r="D228" s="44">
         <v>1.4</v>
       </c>
-      <c r="E228" s="45"/>
+      <c r="E228" s="44"/>
       <c r="J228" s="42"/>
       <c r="K228" s="42"/>
       <c r="L228" s="42"/>
@@ -24509,10 +24509,10 @@
         <v>69</v>
       </c>
       <c r="C242" s="23"/>
-      <c r="D242" s="45">
+      <c r="D242" s="44">
         <v>1.5</v>
       </c>
-      <c r="E242" s="45"/>
+      <c r="E242" s="44"/>
       <c r="J242" s="42"/>
       <c r="K242" s="42"/>
       <c r="L242" s="42"/>
@@ -24522,17 +24522,17 @@
       <c r="P242" s="24"/>
     </row>
     <row r="243" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B243" s="46"/>
-      <c r="C243" s="46"/>
-      <c r="D243" s="46"/>
-      <c r="E243" s="46"/>
-      <c r="F243" s="46"/>
-      <c r="G243" s="46"/>
-      <c r="I243" s="46"/>
-      <c r="J243" s="46"/>
-      <c r="K243" s="46"/>
-      <c r="L243" s="46"/>
-      <c r="M243" s="46"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="45"/>
+      <c r="D243" s="45"/>
+      <c r="E243" s="45"/>
+      <c r="F243" s="45"/>
+      <c r="G243" s="45"/>
+      <c r="I243" s="45"/>
+      <c r="J243" s="45"/>
+      <c r="K243" s="45"/>
+      <c r="L243" s="45"/>
+      <c r="M243" s="45"/>
       <c r="N243" s="25"/>
       <c r="O243" s="25"/>
       <c r="P243" s="30"/>
@@ -25088,10 +25088,10 @@
         <v>69</v>
       </c>
       <c r="C259" s="23"/>
-      <c r="D259" s="45">
+      <c r="D259" s="44">
         <v>1.6</v>
       </c>
-      <c r="E259" s="45"/>
+      <c r="E259" s="44"/>
       <c r="J259" s="42"/>
       <c r="K259" s="42"/>
       <c r="L259" s="42"/>
@@ -25699,10 +25699,10 @@
         <v>69</v>
       </c>
       <c r="C276" s="23"/>
-      <c r="D276" s="45">
+      <c r="D276" s="44">
         <v>1.7</v>
       </c>
-      <c r="E276" s="45"/>
+      <c r="E276" s="44"/>
       <c r="J276" s="42"/>
       <c r="K276" s="42"/>
       <c r="L276" s="42"/>
@@ -25712,17 +25712,17 @@
       <c r="P276" s="24"/>
     </row>
     <row r="277" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B277" s="46"/>
-      <c r="C277" s="46"/>
-      <c r="D277" s="46"/>
-      <c r="E277" s="46"/>
-      <c r="F277" s="46"/>
-      <c r="G277" s="46"/>
-      <c r="I277" s="46"/>
-      <c r="J277" s="46"/>
-      <c r="K277" s="46"/>
-      <c r="L277" s="46"/>
-      <c r="M277" s="46"/>
+      <c r="B277" s="45"/>
+      <c r="C277" s="45"/>
+      <c r="D277" s="45"/>
+      <c r="E277" s="45"/>
+      <c r="F277" s="45"/>
+      <c r="G277" s="45"/>
+      <c r="I277" s="45"/>
+      <c r="J277" s="45"/>
+      <c r="K277" s="45"/>
+      <c r="L277" s="45"/>
+      <c r="M277" s="45"/>
       <c r="N277" s="25"/>
       <c r="O277" s="25"/>
       <c r="P277" s="30"/>
@@ -26247,10 +26247,10 @@
         <v>69</v>
       </c>
       <c r="C292" s="23"/>
-      <c r="D292" s="45">
+      <c r="D292" s="44">
         <v>1.8</v>
       </c>
-      <c r="E292" s="45"/>
+      <c r="E292" s="44"/>
       <c r="J292" s="42"/>
       <c r="K292" s="42"/>
       <c r="L292" s="42"/>
@@ -26260,17 +26260,17 @@
       <c r="P292" s="24"/>
     </row>
     <row r="293" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B293" s="46"/>
-      <c r="C293" s="46"/>
-      <c r="D293" s="46"/>
-      <c r="E293" s="46"/>
-      <c r="F293" s="46"/>
-      <c r="G293" s="46"/>
-      <c r="I293" s="46"/>
-      <c r="J293" s="46"/>
-      <c r="K293" s="46"/>
-      <c r="L293" s="46"/>
-      <c r="M293" s="46"/>
+      <c r="B293" s="45"/>
+      <c r="C293" s="45"/>
+      <c r="D293" s="45"/>
+      <c r="E293" s="45"/>
+      <c r="F293" s="45"/>
+      <c r="G293" s="45"/>
+      <c r="I293" s="45"/>
+      <c r="J293" s="45"/>
+      <c r="K293" s="45"/>
+      <c r="L293" s="45"/>
+      <c r="M293" s="45"/>
       <c r="N293" s="25"/>
       <c r="O293" s="25"/>
       <c r="P293" s="30"/>
@@ -26751,10 +26751,10 @@
         <v>69</v>
       </c>
       <c r="C307" s="23"/>
-      <c r="D307" s="45">
+      <c r="D307" s="44">
         <v>1.9</v>
       </c>
-      <c r="E307" s="45"/>
+      <c r="E307" s="44"/>
       <c r="J307" s="42"/>
       <c r="K307" s="42"/>
       <c r="L307" s="42"/>
@@ -27299,10 +27299,10 @@
         <v>69</v>
       </c>
       <c r="C323" s="23"/>
-      <c r="D323" s="45">
+      <c r="D323" s="44">
         <v>2</v>
       </c>
-      <c r="E323" s="45"/>
+      <c r="E323" s="44"/>
       <c r="J323" s="42"/>
       <c r="K323" s="42"/>
       <c r="L323" s="42"/>
@@ -27864,10 +27864,10 @@
         <v>69</v>
       </c>
       <c r="C340" s="23"/>
-      <c r="D340" s="45">
+      <c r="D340" s="44">
         <v>2.1</v>
       </c>
-      <c r="E340" s="45"/>
+      <c r="E340" s="44"/>
       <c r="J340" s="42"/>
       <c r="K340" s="42"/>
       <c r="L340" s="42"/>
@@ -28474,10 +28474,10 @@
         <v>69</v>
       </c>
       <c r="C358" s="23"/>
-      <c r="D358" s="45">
+      <c r="D358" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E358" s="45"/>
+      <c r="E358" s="44"/>
       <c r="J358" s="42"/>
       <c r="K358" s="42"/>
       <c r="L358" s="42"/>
@@ -28938,10 +28938,10 @@
         <v>69</v>
       </c>
       <c r="C372" s="23"/>
-      <c r="D372" s="45">
+      <c r="D372" s="44">
         <v>2.3250000000000002</v>
       </c>
-      <c r="E372" s="45"/>
+      <c r="E372" s="44"/>
       <c r="J372" s="42"/>
       <c r="K372" s="42"/>
       <c r="L372" s="42"/>
@@ -28951,17 +28951,17 @@
       <c r="P372" s="24"/>
     </row>
     <row r="373" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B373" s="46"/>
-      <c r="C373" s="46"/>
-      <c r="D373" s="46"/>
-      <c r="E373" s="46"/>
-      <c r="F373" s="46"/>
-      <c r="G373" s="46"/>
-      <c r="I373" s="46"/>
-      <c r="J373" s="46"/>
-      <c r="K373" s="46"/>
-      <c r="L373" s="46"/>
-      <c r="M373" s="46"/>
+      <c r="B373" s="45"/>
+      <c r="C373" s="45"/>
+      <c r="D373" s="45"/>
+      <c r="E373" s="45"/>
+      <c r="F373" s="45"/>
+      <c r="G373" s="45"/>
+      <c r="I373" s="45"/>
+      <c r="J373" s="45"/>
+      <c r="K373" s="45"/>
+      <c r="L373" s="45"/>
+      <c r="M373" s="45"/>
       <c r="N373" s="25"/>
       <c r="O373" s="25"/>
       <c r="P373" s="30"/>
@@ -30062,27 +30062,21 @@
     <row r="861" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="D372:E372"/>
-    <mergeCell ref="B373:G373"/>
-    <mergeCell ref="I373:M373"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="B293:G293"/>
-    <mergeCell ref="I293:M293"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="I243:M243"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="I277:M277"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D114:E114"/>
     <mergeCell ref="H143:I143"/>
     <mergeCell ref="H177:I177"/>
@@ -30098,21 +30092,27 @@
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="B145:G145"/>
     <mergeCell ref="I145:M145"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="I81:M81"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="I243:M243"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="I277:M277"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="I293:M293"/>
+    <mergeCell ref="D307:E307"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="D372:E372"/>
+    <mergeCell ref="B373:G373"/>
+    <mergeCell ref="I373:M373"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -30124,8 +30124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -31169,8 +31169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
